--- a/i_input/Data_Model.xlsx
+++ b/i_input/Data_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Desktop\Seafile\Mia Libreria\GitHub_Repo\datamodel_page\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE5BB95-21A9-4685-9C32-1FC774D3408C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F98B3-A322-42D0-AB0D-F68217BC1BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="0" windowWidth="19860" windowHeight="15600" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>

--- a/i_input/Data_Model.xlsx
+++ b/i_input/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Desktop\Seafile\Mia Libreria\GitHub_Repo\datamodel_page\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F98B3-A322-42D0-AB0D-F68217BC1BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387BD6B6-6C3E-4FA7-9B8A-C33DBA1B9041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="19860" windowHeight="15600" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
+    <workbookView xWindow="17175" yWindow="0" windowWidth="19860" windowHeight="15600" firstSheet="4" activeTab="6" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="COVERAGE_BIRTHCOHORTS" sheetId="3" r:id="rId4"/>
     <sheet name="COVERAGE_RISKFACTORS" sheetId="5" r:id="rId5"/>
     <sheet name="D4_study_source_population" sheetId="6" r:id="rId6"/>
-    <sheet name="D3_study_population" sheetId="7" r:id="rId7"/>
+    <sheet name="D3_study_population" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,12 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="127">
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Name</t>
@@ -195,9 +192,6 @@
     <t>COVERAGE_RISKFACTORS</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>person_id</t>
   </si>
   <si>
@@ -300,18 +294,9 @@
     <t>whether the person had risk_factor at at study_entry_date</t>
   </si>
   <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>0=no 1=yes</t>
-  </si>
-  <si>
     <t>the variables risk factor_at_study_entry are descrived in section 5</t>
   </si>
   <si>
-    <t>immunosuppressants_at_study_entry</t>
-  </si>
-  <si>
     <t>whether the person had used immunosuppressants at study_entry_date</t>
   </si>
   <si>
@@ -333,9 +318,6 @@
     <t>risk_factor at date_vax_1</t>
   </si>
   <si>
-    <t>immunosuppressants_at_ date_vax_1</t>
-  </si>
-  <si>
     <t>at_risk_at_ date_vax_1</t>
   </si>
   <si>
@@ -345,12 +327,6 @@
     <t>brand of vaccine 1, if any</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Pfizer Moderna AstraZeneca Janssen UNK</t>
-  </si>
-  <si>
     <t>type_vax_2</t>
   </si>
   <si>
@@ -447,20 +423,41 @@
     <t>Description of DOSES_RISKFACTORS</t>
   </si>
   <si>
-    <t>Description of DOSES_BIRTHCOHORTS</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Description of **DOSES_BIRTHCOHORTS**:  &lt;br&gt; - first  &lt;br&gt; - second &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>date yyyymmdd</t>
+  </si>
+  <si>
+    <t>binary 0=no 1=yes</t>
+  </si>
+  <si>
+    <t>string Pfizer Moderna AstraZeneca Janssen UNK</t>
+  </si>
+  <si>
+    <t>D3_study_population</t>
+  </si>
+  <si>
+    <t>Description of D3_study_population</t>
+  </si>
+  <si>
+    <t>immunosuppressants_ at_ date_vax_1</t>
+  </si>
+  <si>
+    <t>immunosuppressants _at_study_entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,6 +481,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -533,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -554,11 +558,200 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <name val="-apple-system"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <name val="-apple-system"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <name val="-apple-system"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <name val="-apple-system"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <name val="-apple-system"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -569,6 +762,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9974DD57-1E95-4DCC-9499-BAFBDD075E50}" name="Tabella1" displayName="Tabella1" ref="A1:D28" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D28" xr:uid="{9974DD57-1E95-4DCC-9499-BAFBDD075E50}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6EC146A7-894B-48CB-BD2E-C250C476C2FF}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EB883764-FB23-45A5-8EAE-04976E89E649}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D9ED476B-1335-4A8C-9E73-7D2813EDC930}" name="Format/Vocabulary" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{89D83A49-41B2-415F-B3E8-9D83E0820974}" name="Comments" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87FEA8-A6F6-49F1-8D04-8D37CFB2FED4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -882,66 +1088,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -954,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB04123-84A4-4EDD-BACC-BC7956129F3E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -968,97 +1182,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1071,109 +1288,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2998D07D-5949-4B48-A101-DB98049FC7F5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="48">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="63">
-      <c r="A2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="78.75">
-      <c r="A4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="47.25">
-      <c r="A5" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="156">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="252">
-      <c r="A6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1185,96 +1409,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C49FDF-B722-4848-AD6A-BD1494280715}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="63">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="63">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78.75">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="78.75">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="63">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="141.75">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="141.75">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1286,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F234E0EE-1EB4-4495-B23E-1CA73E7ACA57}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1300,73 +1542,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="63">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="63">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="47.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="252">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1379,124 +1648,134 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="46.5" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="91.5" thickBot="1">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="301.5" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="61.5" thickBot="1">
       <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="106.5" thickBot="1">
+      <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="346.5" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1506,427 +1785,393 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA47A04D-0A8B-459E-8619-FAA5584606BB}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF52814-D113-46C4-8C33-2F3884FB7D95}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="137" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="46.5" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="61.5" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="61.5" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="61.5" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="61.5" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="76.5" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="76.5" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="76.5" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="91.5" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="91.5" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="46.5" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="121.5" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="151.5" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="121.5" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="46.5" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="121.5" thickBot="1">
-      <c r="A15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="151.5" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="121.5" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="46.5" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="91.5" thickBot="1">
-      <c r="A19" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="91.5" thickBot="1">
-      <c r="A20" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="76.5" thickBot="1">
-      <c r="A21" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="91.5" thickBot="1">
-      <c r="A22" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="31.5" thickBot="1">
+      <c r="A25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="76.5" thickBot="1">
-      <c r="A23" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A24" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="46.5" thickBot="1">
+      <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="106.5" thickBot="1">
-      <c r="A25" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="106.5" thickBot="1">
-      <c r="A26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="106.5" thickBot="1">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>